--- a/files/homework/homework_1.xlsx
+++ b/files/homework/homework_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12705"/>
+    <workbookView windowWidth="28065" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一题" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已知：</t>
     </r>
     <r>
@@ -125,7 +132,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（1）简述社会信用体系建设应围绕哪几个方面展开；
-（2）选取其中的三个方面，阐述我国在这三个方面已经开展了哪些具体措施和行动。
+（2）选取其中的三个方面，阐述我国在这三个方面已经开展了哪些具体措施和行动(必须有近三年的措施和行动)。
 </t>
     </r>
     <r>
@@ -183,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -263,6 +270,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -271,6 +300,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -279,21 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -303,14 +332,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -334,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,20 +369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -371,7 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,11 +391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,181 +450,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,6 +766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -832,172 +854,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,12 +1072,6 @@
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1436,189 +1437,189 @@
   <sheetPr/>
   <dimension ref="L2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="11" width="9" style="23"/>
-    <col min="12" max="12" width="13.625" style="23" customWidth="true"/>
-    <col min="13" max="13" width="29.375" style="23" customWidth="true"/>
-    <col min="14" max="14" width="19.5" style="23" customWidth="true"/>
-    <col min="15" max="15" width="20.125" style="23" customWidth="true"/>
-    <col min="16" max="16" width="23.75" style="23" customWidth="true"/>
-    <col min="17" max="17" width="18.875" style="23" customWidth="true"/>
-    <col min="18" max="16384" width="9" style="23"/>
+    <col min="1" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="13.625" style="1" customWidth="true"/>
+    <col min="13" max="13" width="29.375" style="1" customWidth="true"/>
+    <col min="14" max="14" width="19.5" style="1" customWidth="true"/>
+    <col min="15" max="15" width="20.125" style="1" customWidth="true"/>
+    <col min="16" max="16" width="23.75" style="1" customWidth="true"/>
+    <col min="17" max="17" width="18.875" style="1" customWidth="true"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" spans="12:17">
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="35"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="12:17">
-      <c r="L4" s="25"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="36"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="12:17">
-      <c r="L5" s="25"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="36"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="12:17">
-      <c r="L6" s="25"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="36"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="12:17">
-      <c r="L7" s="25"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="36"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="12:17">
-      <c r="L8" s="25"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="36"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="12:17">
-      <c r="L9" s="25"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="36"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="12:17">
-      <c r="L10" s="25"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="36"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="12:17">
-      <c r="L11" s="25"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="36"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="12:17">
-      <c r="L12" s="25"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="36"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="12:17">
-      <c r="L13" s="25"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="36"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" ht="14.25" spans="12:17">
-      <c r="L14" s="26"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="37"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" ht="24" customHeight="true"/>
     <row r="16" ht="64" customHeight="true" spans="12:17">
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" ht="31" customHeight="true" spans="12:17">
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="29">
         <v>1.2</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="30">
         <v>500000</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34">
+      <c r="O17" s="31"/>
+      <c r="P17" s="32">
         <v>0.66</v>
       </c>
-      <c r="Q17" s="38"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" ht="33" customHeight="true" spans="12:17">
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="29">
         <v>-3</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="30">
         <v>380000</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34">
+      <c r="O18" s="31"/>
+      <c r="P18" s="32">
         <v>0.47</v>
       </c>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" ht="35" customHeight="true" spans="12:17">
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="29">
         <v>-4.6</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="30">
         <v>100000</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34">
+      <c r="O19" s="31"/>
+      <c r="P19" s="32">
         <v>0.19</v>
       </c>
-      <c r="Q19" s="38"/>
+      <c r="Q19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1634,8 +1635,8 @@
   <sheetPr/>
   <dimension ref="B2:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
